--- a/data/trans_orig/CUI_GLOB-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CUI_GLOB-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>13137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8710</v>
+        <v>9283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16530</v>
+        <v>16414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6419837157529625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4256268132395421</v>
+        <v>0.4536565161997247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8077807221522236</v>
+        <v>0.8021320000787845</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -762,19 +762,19 @@
         <v>17956</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13590</v>
+        <v>14469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20872</v>
+        <v>21048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6813329681734224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.515653013225975</v>
+        <v>0.5490304392313966</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7919849017101053</v>
+        <v>0.7986811927260916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -783,19 +783,19 @@
         <v>31093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25665</v>
+        <v>26040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35607</v>
+        <v>35821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6641338707491615</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5481920198598497</v>
+        <v>0.5562035251279098</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7605511868355567</v>
+        <v>0.7651127985292466</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3192</v>
+        <v>3206</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10854</v>
+        <v>10703</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3171819873388858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1559721414320427</v>
+        <v>0.1566489440921363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5304021528642002</v>
+        <v>0.5230198093084908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>3022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1330</v>
+        <v>1122</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6547</v>
+        <v>6027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1146730532253914</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05045529162480769</v>
+        <v>0.04256462946895662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2484388863968092</v>
+        <v>0.2286869209509858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -854,19 +854,19 @@
         <v>9513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5661</v>
+        <v>5321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14835</v>
+        <v>14046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2031873367976555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1209074594751444</v>
+        <v>0.1136522683201953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3168604033559412</v>
+        <v>0.3000184153430674</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3741</v>
+        <v>4134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04083429690815187</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1828379609203076</v>
+        <v>0.2020026409116702</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>5376</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2899</v>
+        <v>2878</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8651</v>
+        <v>8636</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2039939786011862</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1099990472652492</v>
+        <v>0.1092040267943238</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3282576855446126</v>
+        <v>0.3276928016636712</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -925,19 +925,19 @@
         <v>6212</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3208</v>
+        <v>3531</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9915</v>
+        <v>10307</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1326787924531828</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06852092033381257</v>
+        <v>0.07542343793359219</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2117725235007883</v>
+        <v>0.2201438264045848</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>39163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30021</v>
+        <v>30640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47168</v>
+        <v>47064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6124755771983543</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4695045264020115</v>
+        <v>0.4791878072832269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7376734702517291</v>
+        <v>0.736048507876668</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -1050,19 +1050,19 @@
         <v>51076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41857</v>
+        <v>42698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59087</v>
+        <v>59828</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5298604081775411</v>
+        <v>0.529860408177541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4342273085204718</v>
+        <v>0.4429460714989484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6129679443683045</v>
+        <v>0.620654245641302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>109</v>
@@ -1071,19 +1071,19 @@
         <v>90239</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78476</v>
+        <v>77808</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>102454</v>
+        <v>102762</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5628070513737486</v>
+        <v>0.5628070513737485</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4894406710209301</v>
+        <v>0.4852761725030604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6389900773117975</v>
+        <v>0.6409083706077641</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>14583</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7796</v>
+        <v>7877</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23526</v>
+        <v>22586</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2280732841682577</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.12191809609119</v>
+        <v>0.1231851161569606</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3679323826467243</v>
+        <v>0.3532193476960049</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -1121,19 +1121,19 @@
         <v>23826</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16818</v>
+        <v>17242</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33049</v>
+        <v>32328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2471731672175565</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1744692342763016</v>
+        <v>0.1788657021480649</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3428491368171159</v>
+        <v>0.3353706532292794</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -1142,19 +1142,19 @@
         <v>38410</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28615</v>
+        <v>28248</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>49130</v>
+        <v>51207</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2395562000265071</v>
+        <v>0.239556200026507</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1784674601506549</v>
+        <v>0.1761776632152616</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3064158799883082</v>
+        <v>0.3193714984055618</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>10196</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5298</v>
+        <v>5189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17832</v>
+        <v>17519</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1594511386333881</v>
+        <v>0.159451138633388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08285424912950305</v>
+        <v>0.08115842268877239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2788746412204174</v>
+        <v>0.2739894387122554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1192,19 +1192,19 @@
         <v>21493</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14975</v>
+        <v>14915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29283</v>
+        <v>29178</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2229664246049025</v>
+        <v>0.2229664246049024</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1553471542346359</v>
+        <v>0.1547298644805901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3037823278844964</v>
+        <v>0.3026928212914982</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1213,19 +1213,19 @@
         <v>31689</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23215</v>
+        <v>22499</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42743</v>
+        <v>42227</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1976367485997444</v>
+        <v>0.1976367485997443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1447906818624007</v>
+        <v>0.1403213461318482</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2665789917577284</v>
+        <v>0.2633602413530643</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>22647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17532</v>
+        <v>17432</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27442</v>
+        <v>27122</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6505037233544817</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5035819329729494</v>
+        <v>0.5007020124133329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7882365712569663</v>
+        <v>0.779023354959966</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1338,19 +1338,19 @@
         <v>30614</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25421</v>
+        <v>25295</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35145</v>
+        <v>34629</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.703459899423366</v>
+        <v>0.7034598994233661</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5841367595464052</v>
+        <v>0.5812315027772136</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8075767981538498</v>
+        <v>0.7957215051351006</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -1359,19 +1359,19 @@
         <v>53261</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45501</v>
+        <v>46250</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59167</v>
+        <v>59613</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6799237578957287</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5808651711430355</v>
+        <v>0.5904146074264381</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7553120432503206</v>
+        <v>0.7610137326353521</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>4464</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1964</v>
+        <v>1919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8532</v>
+        <v>8548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1282150158810455</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05641689819900023</v>
+        <v>0.05510905709986361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2450651454640135</v>
+        <v>0.2455126702928292</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1409,19 +1409,19 @@
         <v>5946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3260</v>
+        <v>3146</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10243</v>
+        <v>10605</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1366327911260403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07492065398879774</v>
+        <v>0.07229559042762142</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2353738800382922</v>
+        <v>0.2436911895864229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1430,19 +1430,19 @@
         <v>10410</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6640</v>
+        <v>6315</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16368</v>
+        <v>15175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1328915476258236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08475917641738577</v>
+        <v>0.08062255012363248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2089470985512132</v>
+        <v>0.1937227927501622</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>7704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3693</v>
+        <v>4118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12742</v>
+        <v>12197</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2212812607644727</v>
+        <v>0.2212812607644728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.106063882581435</v>
+        <v>0.1182963722787261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.365988430198436</v>
+        <v>0.350344592512959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1480,19 +1480,19 @@
         <v>6959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3897</v>
+        <v>4042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11577</v>
+        <v>11820</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1599073094505936</v>
+        <v>0.1599073094505937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08955652083903162</v>
+        <v>0.09288679848005714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2660121227539085</v>
+        <v>0.2715943379116578</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1501,19 +1501,19 @@
         <v>14663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9786</v>
+        <v>9544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21749</v>
+        <v>21659</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1871846944784477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1249221598072838</v>
+        <v>0.1218425797760995</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2776456315265898</v>
+        <v>0.276490713915087</v>
       </c>
     </row>
     <row r="15">
@@ -1605,7 +1605,7 @@
         <v>33072</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23279</v>
+        <v>23150</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>40125</v>
@@ -1614,10 +1614,10 @@
         <v>0.6883582916601504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.484530532742131</v>
+        <v>0.4818502593999839</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8351585716347175</v>
+        <v>0.8351490764321247</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1626,19 +1626,19 @@
         <v>28438</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23399</v>
+        <v>23495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32598</v>
+        <v>32972</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6376572874569478</v>
+        <v>0.6376572874569481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5246700135306979</v>
+        <v>0.5268266923751066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7309487189972191</v>
+        <v>0.7393227303619373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -1647,19 +1647,19 @@
         <v>61510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50724</v>
+        <v>50404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69399</v>
+        <v>69895</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6639510652957827</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5475291253552245</v>
+        <v>0.5440713291157259</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7491124564950129</v>
+        <v>0.7544670840861429</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>8642</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2892</v>
+        <v>2652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18973</v>
+        <v>19007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1798644388028048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06019332556920229</v>
+        <v>0.05519455245705802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3949025268874765</v>
+        <v>0.3955996929762006</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -1697,19 +1697,19 @@
         <v>4634</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2176</v>
+        <v>2121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8029</v>
+        <v>8480</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1039010013931974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04879584564812619</v>
+        <v>0.04756361074723157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1800326499172256</v>
+        <v>0.1901565452509301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1718,19 +1718,19 @@
         <v>13275</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7612</v>
+        <v>7658</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26420</v>
+        <v>27390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1432959952106233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08216898921544596</v>
+        <v>0.08265852499090171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2851854308968255</v>
+        <v>0.2956523763708483</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>6331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2625</v>
+        <v>2685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11742</v>
+        <v>12936</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1317772695370449</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05462761602897516</v>
+        <v>0.05588765293117481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2444054095157084</v>
+        <v>0.2692491834510503</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1768,19 +1768,19 @@
         <v>11526</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8030</v>
+        <v>7352</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15993</v>
+        <v>15848</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2584417111498546</v>
+        <v>0.2584417111498548</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1800470293306098</v>
+        <v>0.1648582258020504</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3586110896687964</v>
+        <v>0.3553565310110974</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -1789,19 +1789,19 @@
         <v>17857</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12329</v>
+        <v>11599</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25525</v>
+        <v>24534</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1927529394935941</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1330794721789292</v>
+        <v>0.1252022329239473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2755223134239267</v>
+        <v>0.2648282561798277</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>8153</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5537</v>
+        <v>5193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10131</v>
+        <v>9959</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7612094255678912</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5170245081928676</v>
+        <v>0.4849029223814298</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.945900309455826</v>
+        <v>0.9299109175174015</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1914,19 +1914,19 @@
         <v>19116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15847</v>
+        <v>16155</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21073</v>
+        <v>21133</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7954124215230792</v>
+        <v>0.7954124215230793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6593845678313613</v>
+        <v>0.6721934793967747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8768160731942723</v>
+        <v>0.879324132009093</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>64</v>
@@ -1935,19 +1935,19 @@
         <v>27269</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23182</v>
+        <v>23122</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30070</v>
+        <v>30012</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7848686867367133</v>
+        <v>0.7848686867367134</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6672123809704125</v>
+        <v>0.6654855534206875</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8654725750661647</v>
+        <v>0.8638079020423074</v>
       </c>
     </row>
     <row r="21">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3637</v>
+        <v>3629</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07375717087971086</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3395782433101232</v>
+        <v>0.3388099015128413</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1985,19 +1985,19 @@
         <v>1223</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3421</v>
+        <v>3263</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.05087895558634353</v>
+        <v>0.05087895558634355</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01581024637083379</v>
+        <v>0.01578906079065169</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1423413023602597</v>
+        <v>0.1357916784343656</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -2006,19 +2006,19 @@
         <v>2013</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>633</v>
+        <v>749</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4749</v>
+        <v>4861</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05793160777958096</v>
+        <v>0.05793160777958097</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01822300718132082</v>
+        <v>0.02155176184342307</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1366800431373782</v>
+        <v>0.1399216662651626</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4565</v>
+        <v>4179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.165033403552398</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04376152329342532</v>
+        <v>0.04401800770420428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4262795668599957</v>
+        <v>0.390207808004188</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2056,19 +2056,19 @@
         <v>3694</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1980</v>
+        <v>1800</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6514</v>
+        <v>6419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1537086228905772</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08236986956555745</v>
+        <v>0.07490243063666875</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2710241968239174</v>
+        <v>0.2670748265157258</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2077,19 +2077,19 @@
         <v>5462</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2959</v>
+        <v>3246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8904</v>
+        <v>9143</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1571997054837058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08517400175365965</v>
+        <v>0.09342554772642481</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2562845742304969</v>
+        <v>0.2631513663950492</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>22776</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18363</v>
+        <v>18464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26466</v>
+        <v>26528</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7082461305832823</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5710095367924364</v>
+        <v>0.5741523029320332</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8229697389836876</v>
+        <v>0.8249127340969802</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>82</v>
@@ -2202,19 +2202,19 @@
         <v>32405</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27883</v>
+        <v>27701</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36474</v>
+        <v>36495</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7541760287849093</v>
+        <v>0.7541760287849095</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6489352951091377</v>
+        <v>0.6447000800059648</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8488773761739695</v>
+        <v>0.8493741447637448</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -2223,19 +2223,19 @@
         <v>55182</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>48983</v>
+        <v>48284</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60803</v>
+        <v>60131</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7345149239610109</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.651998267459222</v>
+        <v>0.6427007947343508</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8093341460398988</v>
+        <v>0.8003897391593781</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>4380</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2105</v>
+        <v>1860</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8032</v>
+        <v>8051</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1361979545908274</v>
+        <v>0.1361979545908273</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06544414290341244</v>
+        <v>0.05783925647794753</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2497627438659585</v>
+        <v>0.2503490963992261</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2273,19 +2273,19 @@
         <v>3311</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1052</v>
+        <v>1079</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7863</v>
+        <v>8622</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07706003577292107</v>
+        <v>0.0770600357729211</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02448418592915115</v>
+        <v>0.02512270439841065</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1829965854338187</v>
+        <v>0.2006554816826921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2294,19 +2294,19 @@
         <v>7691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4136</v>
+        <v>4262</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13052</v>
+        <v>13082</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.102375067298614</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05505273647871398</v>
+        <v>0.05672801336285622</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1737318072813468</v>
+        <v>0.1741373009145049</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>5003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2277</v>
+        <v>2141</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9567</v>
+        <v>9419</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1555559148258902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0708111944124231</v>
+        <v>0.06658949358764407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2974998371059553</v>
+        <v>0.2928882875055084</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2344,19 +2344,19 @@
         <v>7251</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4243</v>
+        <v>4063</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11286</v>
+        <v>11198</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1687639354421693</v>
+        <v>0.1687639354421694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09875209054816704</v>
+        <v>0.0945508547017761</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2626695014634164</v>
+        <v>0.2606186300449251</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>22</v>
@@ -2365,19 +2365,19 @@
         <v>12254</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8090</v>
+        <v>7896</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17681</v>
+        <v>18329</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.163110008740375</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1076797939312556</v>
+        <v>0.1050983396721198</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2353435647408871</v>
+        <v>0.2439699553846942</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>32607</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23800</v>
+        <v>23842</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>39653</v>
+        <v>39908</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6226909762177075</v>
+        <v>0.6226909762177072</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4545034009887676</v>
+        <v>0.4553174931653375</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7572624005132467</v>
+        <v>0.7621235206632256</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -2490,19 +2490,19 @@
         <v>41147</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32711</v>
+        <v>33942</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48213</v>
+        <v>47926</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5711894937937372</v>
+        <v>0.5711894937937373</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4540887982747447</v>
+        <v>0.4711776763077432</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6692840436754433</v>
+        <v>0.665291120565482</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>84</v>
@@ -2511,19 +2511,19 @@
         <v>73753</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62284</v>
+        <v>64413</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>84000</v>
+        <v>84449</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5928679189220624</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5006733485670763</v>
+        <v>0.5177874719783937</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6752445603236344</v>
+        <v>0.6788512410185445</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>8365</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3981</v>
+        <v>4024</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15031</v>
+        <v>14634</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1597548576683195</v>
+        <v>0.1597548576683194</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07602728779674311</v>
+        <v>0.07685362354562845</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2870452058431356</v>
+        <v>0.2794720241314477</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2561,19 +2561,19 @@
         <v>12952</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7956</v>
+        <v>7708</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20296</v>
+        <v>19173</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1798024009859208</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1104480496509385</v>
+        <v>0.1069982729136107</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2817427291437775</v>
+        <v>0.2661589787088652</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2582,19 +2582,19 @@
         <v>21318</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>14221</v>
+        <v>14318</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30796</v>
+        <v>30041</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.171363825116594</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1143196826986795</v>
+        <v>0.1150949096356684</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2475523044825782</v>
+        <v>0.2414868324962065</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>11392</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5803</v>
+        <v>5496</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20366</v>
+        <v>19250</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2175541661139732</v>
+        <v>0.2175541661139731</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1108210994284865</v>
+        <v>0.1049485714227142</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3889320185564281</v>
+        <v>0.367622051344001</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>26</v>
@@ -2632,19 +2632,19 @@
         <v>17938</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12206</v>
+        <v>12697</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24638</v>
+        <v>25672</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2490081052203419</v>
+        <v>0.249008105220342</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1694383998295256</v>
+        <v>0.1762610745815153</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3420133216908526</v>
+        <v>0.3563670862951535</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -2653,19 +2653,19 @@
         <v>29330</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>21261</v>
+        <v>20438</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>40886</v>
+        <v>38592</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2357682559613437</v>
+        <v>0.2357682559613438</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.170908168226185</v>
+        <v>0.1642964099652753</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3286689362038866</v>
+        <v>0.3102251216825861</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>30769</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24096</v>
+        <v>23533</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37724</v>
+        <v>37750</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5058339176195481</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.396120677420652</v>
+        <v>0.3868686775713642</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.620158499762371</v>
+        <v>0.620591256266569</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>94</v>
@@ -2778,19 +2778,19 @@
         <v>65720</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>57046</v>
+        <v>55453</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>74991</v>
+        <v>75121</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5317467121020377</v>
+        <v>0.5317467121020376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4615631985767966</v>
+        <v>0.4486752893320656</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6067563374484124</v>
+        <v>0.6078099881137276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>133</v>
@@ -2799,19 +2799,19 @@
         <v>96490</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>84546</v>
+        <v>83987</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>108721</v>
+        <v>108916</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5231997208584446</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4584360011490453</v>
+        <v>0.4554061519367608</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5895218589093068</v>
+        <v>0.5905806706738204</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>15549</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9989</v>
+        <v>10266</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>22206</v>
+        <v>23775</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2556164564178105</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.164220005497618</v>
+        <v>0.1687613907108036</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3650527881644529</v>
+        <v>0.3908518050493636</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>22</v>
@@ -2849,19 +2849,19 @@
         <v>15480</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>10110</v>
+        <v>9720</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>22540</v>
+        <v>22261</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1252505259620325</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.08180448938438498</v>
+        <v>0.07864296006514448</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1823765350212077</v>
+        <v>0.1801163560753622</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>39</v>
@@ -2870,19 +2870,19 @@
         <v>31029</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>22633</v>
+        <v>22597</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>40577</v>
+        <v>41642</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1682499973938514</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.122724421799814</v>
+        <v>0.1225270472331671</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2200199243010182</v>
+        <v>0.2257967866957723</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>14511</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8889</v>
+        <v>8903</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21947</v>
+        <v>22241</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2385496259626413</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1461300828818656</v>
+        <v>0.1463569785384921</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3608049299317515</v>
+        <v>0.3656327685288735</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>58</v>
@@ -2920,19 +2920,19 @@
         <v>42393</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33879</v>
+        <v>33682</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>51844</v>
+        <v>52226</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3430027619359298</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2741211527978036</v>
+        <v>0.2725224597839503</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.419473167810719</v>
+        <v>0.4225657610549235</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>73</v>
@@ -2941,19 +2941,19 @@
         <v>56903</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>46215</v>
+        <v>45688</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>69295</v>
+        <v>68626</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.308550281747704</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.250591453913108</v>
+        <v>0.2477367281416506</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3757407524447855</v>
+        <v>0.3721147312910205</v>
       </c>
     </row>
     <row r="35">
@@ -3045,19 +3045,19 @@
         <v>202325</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>183785</v>
+        <v>184380</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>218186</v>
+        <v>219518</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.625757670110876</v>
+        <v>0.6257576701108759</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5684166571343967</v>
+        <v>0.5702573418365061</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6748139081191932</v>
+        <v>0.6789327703707468</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>504</v>
@@ -3066,19 +3066,19 @@
         <v>286472</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>267528</v>
+        <v>269323</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>305138</v>
+        <v>303470</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6050140522294998</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5650065264885323</v>
+        <v>0.5687975878424884</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6444368257573493</v>
+        <v>0.6409145689365598</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>747</v>
@@ -3087,19 +3087,19 @@
         <v>488797</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>464381</v>
+        <v>462805</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>514095</v>
+        <v>513832</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.6134312044840989</v>
+        <v>0.6134312044840988</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5827895490536457</v>
+        <v>0.5808118052651634</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6451806488846287</v>
+        <v>0.6448504149926885</v>
       </c>
     </row>
     <row r="37">
@@ -3116,19 +3116,19 @@
         <v>63264</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>50095</v>
+        <v>50025</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>81557</v>
+        <v>77783</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1956643521795515</v>
+        <v>0.1956643521795514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1549340881995914</v>
+        <v>0.1547200438038029</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2522434741588888</v>
+        <v>0.2405698073847359</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>101</v>
@@ -3137,19 +3137,19 @@
         <v>70395</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58059</v>
+        <v>58903</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>84694</v>
+        <v>85509</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1486698465898207</v>
+        <v>0.1486698465898208</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1226174628031345</v>
+        <v>0.1243994241074645</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1788695491584186</v>
+        <v>0.1805899125419122</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>169</v>
@@ -3158,19 +3158,19 @@
         <v>133658</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>114350</v>
+        <v>113328</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>154488</v>
+        <v>153278</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1677388398069349</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.143506995879964</v>
+        <v>0.1422242017153046</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1938798810677652</v>
+        <v>0.1923606226021487</v>
       </c>
     </row>
     <row r="38">
@@ -3187,19 +3187,19 @@
         <v>57739</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>44610</v>
+        <v>43831</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>72805</v>
+        <v>72442</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1785779777095725</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.137971507982403</v>
+        <v>0.1355624505609156</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.225173736584579</v>
+        <v>0.2240512276767874</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>183</v>
@@ -3208,19 +3208,19 @@
         <v>116630</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>101208</v>
+        <v>101461</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>133015</v>
+        <v>132482</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2463161011806794</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2137467650220538</v>
+        <v>0.2142810570099743</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2809219463270196</v>
+        <v>0.2797961500991759</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>243</v>
@@ -3229,19 +3229,19 @@
         <v>174369</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>154177</v>
+        <v>154580</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>195317</v>
+        <v>196486</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2188299557089662</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1934890021919756</v>
+        <v>0.1939957169627997</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2451193934224185</v>
+        <v>0.246586000434137</v>
       </c>
     </row>
     <row r="39">
